--- a/Version.xlsx
+++ b/Version.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870044C6-2919-4B17-9F62-1EC73E8BC9CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64C13D0-B29C-4010-94AC-AAB36404858D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,30 @@
   </si>
   <si>
     <t>Directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capture한 화면을 Bitmap으로 Static Edit에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click을 위한 X, Y 좌표 정상 동작 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장된 Image와 새롭게 Capture한 Bitmap 동일 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -603,23 +627,45 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="13">
-        <v>43359</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="6"/>
+        <v>43355</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="13">
+        <v>43356</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="13">
+        <v>43362</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
@@ -692,6 +738,9 @@
       <c r="C17" s="8"/>
       <c r="D17" s="12"/>
       <c r="E17" s="9"/>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1048576" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
